--- a/assets/Direct-RFM-GrilleProgramme2017.xlsx
+++ b/assets/Direct-RFM-GrilleProgramme2017.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
-    <t xml:space="preserve">Grille de programmation radio Europe1 Live</t>
+    <t xml:space="preserve">Grille de programmation radio RFM Direct</t>
   </si>
   <si>
     <t xml:space="preserve">Ecouter Direct RFM sur franceradios.org</t>
@@ -367,20 +367,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I20"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="16.5612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.5612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -400,6 +405,7 @@
       <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
